--- a/raw/necropsy/20251021_r2_GR_LN_Nano-QuIC.xlsx
+++ b/raw/necropsy/20251021_r2_GR_LN_Nano-QuIC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNPRO\Desktop\RT-QuIC Data\Gage's RT-QuIC Data\2025\20251021_r2_GR_LN_Nano-QuIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowde002\Documents\Projects\usda-validation\raw\necropsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{284C4BDB-B5F7-4B91-8355-4B29A0EF5D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D941C88-0A8C-45F8-98D9-0B2C7E7F907A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{DFFB3EDA-A405-4985-91B4-AE21B9B7A85F}"/>
+    <workbookView xWindow="-14505" yWindow="105" windowWidth="14610" windowHeight="15585" xr2:uid="{DFFB3EDA-A405-4985-91B4-AE21B9B7A85F}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="71">
   <si>
     <t>User: USER</t>
   </si>
@@ -875,7 +875,7 @@
   <dimension ref="A3:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C27" sqref="C27:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,14 +1221,14 @@
       <c r="B27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>57</v>
+      <c r="C27" s="12">
+        <v>2300</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2298</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2299</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -1247,14 +1247,14 @@
       <c r="B28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>57</v>
+      <c r="C28" s="12">
+        <v>2300</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2298</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2299</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1272,14 +1272,14 @@
       <c r="B29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>57</v>
+      <c r="C29" s="12">
+        <v>2300</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2298</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2299</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -1297,14 +1297,14 @@
       <c r="B30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>57</v>
+      <c r="C30" s="12">
+        <v>2300</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2298</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2299</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -1322,14 +1322,14 @@
       <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>57</v>
+      <c r="C31" s="12">
+        <v>2300</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2298</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2299</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -1347,14 +1347,14 @@
       <c r="B32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>57</v>
+      <c r="C32" s="12">
+        <v>2300</v>
+      </c>
+      <c r="D32" s="12">
+        <v>2298</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2299</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -1372,14 +1372,14 @@
       <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>57</v>
+      <c r="C33" s="12">
+        <v>2300</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2298</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2299</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -1397,14 +1397,14 @@
       <c r="B34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>57</v>
+      <c r="C34" s="12">
+        <v>2300</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2298</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2299</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
